--- a/leave/src/main/resources/TestData/Accural/Tenure_Leave_Scenarios.xlsx
+++ b/leave/src/main/resources/TestData/Accural/Tenure_Leave_Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03443EA6-EF78-4B4C-8C22-3331B110C3A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314041CD-8199-4672-8F52-104B2E2BBF09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3943,7 +3943,7 @@
     <t>Custom Leave Cycle</t>
   </si>
   <si>
-    <t>august</t>
+    <t>july</t>
   </si>
 </sst>
 </file>
@@ -20452,8 +20452,8 @@
   <dimension ref="A1:AML83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/TestData/Accural/Tenure_Leave_Scenarios.xlsx
+++ b/leave/src/main/resources/TestData/Accural/Tenure_Leave_Scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314041CD-8199-4672-8F52-104B2E2BBF09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FD88C1-6672-4C50-A7BC-8D3E523BEAAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22572" windowHeight="11844" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_Scenarios" sheetId="1" r:id="rId1"/>
@@ -3940,10 +3940,10 @@
     <t>CustomLeaveCycleMonth</t>
   </si>
   <si>
-    <t>Custom Leave Cycle</t>
+    <t>Financial</t>
   </si>
   <si>
-    <t>july</t>
+    <t>April</t>
   </si>
 </sst>
 </file>
@@ -20452,8 +20452,8 @@
   <dimension ref="A1:AML83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
